--- a/lib/Process2.xlsx
+++ b/lib/Process2.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Prix Calandre" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:E24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1661,7 +1661,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
